--- a/TechveritoProduct/src/main/java/Resources/ValidationFile.xlsx
+++ b/TechveritoProduct/src/main/java/Resources/ValidationFile.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="5070" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="5175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="Product" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E6"/>
+  <oleSize ref="A1:D12"/>
 </workbook>
 </file>
 
